--- a/testdata/TestDataSheet.xlsx
+++ b/testdata/TestDataSheet.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\SeleniumTestNG\selenium-testng\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linrm\Desktop\Auto\SelTestNG\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="UAT" sheetId="2" r:id="rId2"/>
     <sheet name="Production" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Attributes</t>
   </si>
@@ -37,9 +37,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://qa.totalwine.com</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
   </si>
   <si>
     <t>welcome@123</t>
+  </si>
+  <si>
+    <t>http://dimainname.com</t>
+  </si>
+  <si>
+    <t>username@domainl.com</t>
   </si>
 </sst>
 </file>
@@ -395,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,23 +421,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -475,23 +478,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestDataSheet.xlsx
+++ b/testdata/TestDataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="5955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Attributes</t>
   </si>
@@ -43,16 +43,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>rmurphy@yopmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
-  </si>
-  <si>
-    <t>http://uat.totalwine.com</t>
-  </si>
-  <si>
-    <t>welcome@123</t>
   </si>
   <si>
     <t>http://dimainname.com</t>
@@ -398,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +447,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
